--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seise\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5637089B-5C02-406B-9DA7-D944BBED93DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09437BC-FC91-4950-8224-F0F16AC46206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>資格の種類</a:t>
           </a:r>
         </a:p>
@@ -731,7 +737,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>取得日</a:t>
           </a:r>
         </a:p>
@@ -797,7 +809,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>資格証明書</a:t>
           </a:r>
         </a:p>
@@ -863,7 +881,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>資格名</a:t>
           </a:r>
         </a:p>
@@ -905,7 +929,9 @@
         </a:prstGeom>
         <a:ln w="6350">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -968,7 +994,9 @@
         </a:prstGeom>
         <a:ln w="6350">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1031,7 +1059,9 @@
         </a:prstGeom>
         <a:ln w="6350">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1094,7 +1124,9 @@
         </a:prstGeom>
         <a:ln w="6350">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1293,7 +1325,9 @@
         </a:prstGeom>
         <a:ln w="6350">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1327,16 +1361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>616226</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>226944</xdr:colOff>
+      <xdr:colOff>173936</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>31473</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1351,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812196" y="3404151"/>
-          <a:ext cx="914400" cy="389283"/>
+          <a:off x="3962400" y="3129169"/>
+          <a:ext cx="896179" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1382,67 +1416,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>460513</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F2A3B-C250-492C-9C37-0A32D4CEC804}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3210339" y="3404151"/>
-          <a:ext cx="914400" cy="389283"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1823,7 +1796,7 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09437BC-FC91-4950-8224-F0F16AC46206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC9DA6-974F-4C3E-B847-20CE7AA27A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441960" y="213360"/>
-          <a:ext cx="6844085" cy="4125402"/>
+          <a:ext cx="6661868" cy="3976315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,7 +672,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>資格の種類</a:t>
+            <a:t>資格名</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -888,7 +888,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>資格名</a:t>
+            <a:t>資格の種類</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1485,6 +1485,126 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>選択されていません</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357809</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477078</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="二等辺三角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291B74C2-FCC0-9E12-D653-2EE54CE8ED01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5711687" y="1225825"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475091</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="二等辺三角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A27AD0-750D-4E49-A257-6C0EFA87FC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5709700" y="1690977"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1793,7 +1913,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC9DA6-974F-4C3E-B847-20CE7AA27A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23DD1E-664C-4FD7-9215-0E9B4087EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="4392" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1028,15 +1028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>61291</xdr:colOff>
+      <xdr:colOff>21535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506896</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3312</xdr:rowOff>
+      <xdr:rowOff>215347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1051,8 +1051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4186030" y="2165073"/>
-          <a:ext cx="485361" cy="240196"/>
+          <a:off x="4036944" y="2070651"/>
+          <a:ext cx="485361" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,15 +1093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387625</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>238539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>185530</xdr:colOff>
+      <xdr:rowOff>214768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513940</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>238539</xdr:rowOff>
+      <xdr:rowOff>214768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1116,8 +1116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5199821" y="2160104"/>
-          <a:ext cx="485361" cy="240196"/>
+          <a:off x="4747388" y="2043568"/>
+          <a:ext cx="467140" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,15 +1158,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>604630</xdr:colOff>
+      <xdr:colOff>536712</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>215348</xdr:rowOff>
+      <xdr:rowOff>195470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>248477</xdr:colOff>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>49695</xdr:rowOff>
+      <xdr:rowOff>29817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1181,8 +1181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4729369" y="2136913"/>
-          <a:ext cx="331304" cy="314739"/>
+          <a:off x="4565787" y="2024270"/>
+          <a:ext cx="149088" cy="291547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,9 +1211,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>年</a:t>
@@ -1225,16 +1226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561971</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>246821</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>230257</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>578125</xdr:colOff>
+      <xdr:colOff>47621</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>64604</xdr:rowOff>
+      <xdr:rowOff>28367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1249,8 +1250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746473" y="2151822"/>
-          <a:ext cx="331304" cy="314739"/>
+          <a:off x="5262559" y="2019507"/>
+          <a:ext cx="157162" cy="294860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,9 +1280,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>月</a:t>
@@ -1317,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4194313" y="2645464"/>
-          <a:ext cx="957470" cy="240196"/>
+          <a:off x="4084983" y="2554355"/>
+          <a:ext cx="939247" cy="231914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,7 +1353,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ファイルを選択</a:t>
           </a:r>
         </a:p>
@@ -1424,23 +1432,208 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364435</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357809</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477078</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="二等辺三角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291B74C2-FCC0-9E12-D653-2EE54CE8ED01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5711687" y="1225825"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475091</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="二等辺三角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A27AD0-750D-4E49-A257-6C0EFA87FC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5709700" y="1690977"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521682</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED93F3AE-1563-498C-958E-88FBCD48F299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5424364" y="2043403"/>
+          <a:ext cx="469418" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>199073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18091</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>231912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51944B0B-823B-C810-ED3E-AC2087418868}"/>
+      <xdr:rowOff>36733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FCC9B2-EBBF-4B08-A17E-B612AF8C793C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,8 +1641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5176631" y="2633869"/>
-          <a:ext cx="1143000" cy="289892"/>
+          <a:off x="5904542" y="2027873"/>
+          <a:ext cx="157162" cy="294860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1478,133 +1671,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>選択されていません</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357809</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>477078</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="二等辺三角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291B74C2-FCC0-9E12-D653-2EE54CE8ED01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5711687" y="1225825"/>
-          <a:ext cx="119269" cy="66261"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355822</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>475091</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133847</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="二等辺三角形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A27AD0-750D-4E49-A257-6C0EFA87FC29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5709700" y="1690977"/>
-          <a:ext cx="119269" cy="66261"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1913,7 +1987,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23DD1E-664C-4FD7-9215-0E9B4087EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEB7A5-0CCB-4F29-9836-FA7FC2B8B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,13 +102,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>461839</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>431359</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -125,7 +125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="441960" y="213360"/>
+          <a:off x="461839" y="213360"/>
           <a:ext cx="6661868" cy="3976315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1679,6 +1679,186 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>日</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366091</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="二等辺三角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79347E43-99CE-4ABF-881D-39591D0C99FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4381500" y="2163416"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380797</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>75621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500066</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="二等辺三角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132BA1D3-4DAC-4A6A-AE13-8FA53B5266C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5065440" y="2162838"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369073</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488342</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="二等辺三角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDB5750-7683-4B7F-9A7B-478A2922C957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5722951" y="2161430"/>
+          <a:ext cx="119269" cy="66261"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEB7A5-0CCB-4F29-9836-FA7FC2B8B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1FEA0-F313-40B1-8EDD-37C5D349884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -446,9 +446,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -457,85 +456,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>承認待ち一覧</a:t>
+            <a:t>タスク一覧</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>442953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>207728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C785026-DA4A-4F0D-947A-D1BDBE5ACCB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="442953" y="2526858"/>
-          <a:ext cx="1384190" cy="330973"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1FEA0-F313-40B1-8EDD-37C5D349884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0055AC62-9396-449C-BF68-66ABAC4D1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,136 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -76,8 +203,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,15 +1458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>616226</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>632791</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31473</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1318,8 +1481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="3129169"/>
-          <a:ext cx="896179" cy="381000"/>
+          <a:off x="4070074" y="3601277"/>
+          <a:ext cx="932623" cy="397566"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1776,6 +1939,143 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D94491-7737-4742-857C-E5E9E7FB1852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2749826" y="3095707"/>
+          <a:ext cx="1343770" cy="267032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資格証番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69573</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>202094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549965</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24CD592-E80C-4161-999E-0CB72DED9B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194312" y="3084442"/>
+          <a:ext cx="1855305" cy="240196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2089,14 +2389,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3643BE0-3263-4316-8F3E-4619913DE9A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I21" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
+++ b/doc/20_基本設計/01_画面系/ホームページ：資格証登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0055AC62-9396-449C-BF68-66ABAC4D1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6B18E-7C64-49AD-AFE4-1737A10CEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{AF400F39-22F6-4299-AFA2-912DEF319631}"/>
   </bookViews>
@@ -203,11 +203,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -2017,7 +2014,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>資格証番号</a:t>
+            <a:t>証明書番号</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2398,262 +2395,131 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="2"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="3"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
